--- a/test/test_output.xlsx
+++ b/test/test_output.xlsx
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="M2">
-        <f>IFERROR(INDEX('品牌對照資料查詢'!A:A, MATCH(IFERROR(TRIM(LEFT(L3,FIND("|",L3)-1)),TRIM(L3)), '品牌對照資料查詢'!C:C, 0)), "")</f>
+        <f>IFERROR(INDEX('品牌對照資料查詢'!A:A, MATCH(IFERROR(TRIM(LEFT(INDIRECT("L"&amp;ROW()),FIND("|",INDIRECT("L"&amp;ROW()))-1)),TRIM(INDIRECT("L"&amp;ROW()))), '品牌對照資料查詢'!C:C, 0)), "")</f>
         <v/>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="Q2">
-        <f>IFERROR(INDEX('廠商基本資料'!A:A, MATCH(D3, '廠商基本資料'!D:D, 0)), "")</f>
+        <f>IFERROR(INDEX('廠商基本資料'!A:A, MATCH(INDIRECT("D"&amp;ROW()), '廠商基本資料'!D:D, 0)), "")</f>
         <v/>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="M3">
-        <f>IFERROR(INDEX('品牌對照資料查詢'!A:A, MATCH(IFERROR(TRIM(LEFT(L4,FIND("|",L4)-1)),TRIM(L4)), '品牌對照資料查詢'!C:C, 0)), "")</f>
+        <f>IFERROR(INDEX('品牌對照資料查詢'!A:A, MATCH(IFERROR(TRIM(LEFT(INDIRECT("L"&amp;ROW()),FIND("|",INDIRECT("L"&amp;ROW()))-1)),TRIM(INDIRECT("L"&amp;ROW()))), '品牌對照資料查詢'!C:C, 0)), "")</f>
         <v/>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="Q3">
-        <f>IFERROR(INDEX('廠商基本資料'!A:A, MATCH(D4, '廠商基本資料'!D:D, 0)), "")</f>
+        <f>IFERROR(INDEX('廠商基本資料'!A:A, MATCH(INDIRECT("D"&amp;ROW()), '廠商基本資料'!D:D, 0)), "")</f>
         <v/>
       </c>
       <c r="R3" t="inlineStr"/>
